--- a/simulation_study/simulation_results.xlsx
+++ b/simulation_study/simulation_results.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/revised_version_20251208/Local dependence toolbox 20251208/simulation_study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/revised_version_20251208/local dependence toolbox/simulation_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5590354-D291-D444-A02E-18E461B90CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C05BAA1-E73A-BB41-AA28-8E45F7F0E9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="17980" windowHeight="16060" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
+    <workbookView xWindow="4600" yWindow="540" windowWidth="17980" windowHeight="16020" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="simulation results" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5E5241-435D-1646-9C1E-010F994308C5}">
   <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J151" sqref="J151"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
